--- a/db.xlsx
+++ b/db.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,12 +560,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ф и о</t>
+          <t>Юрьев Иван Николаевич</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>8 902704 1329</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -575,39 +575,34 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>01.08.2023</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>26.06.2023</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>9:30</t>
+          <t>09:30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Юрьев иван николаевич</t>
+          <t>Юрьев Иван н.иколаевич</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>89027041329</t>
+          <t>88855585</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Массаж шеи (1 ед)</t>
+          <t>Массаж верхней конечности, надплечья и области лопатки (2 ед)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>26.07.2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -619,54 +614,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sdf sdf  ff</t>
+          <t>Юр ив ни</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>111222333</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Массаж лица (лобной, окологлазничной, верхне- и нижнечелюстной области) (1 ед)</t>
+          <t>Массаж шеи (1 ед)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13.07.2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>а в ы</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Массаж верхней конечности, надплечья и области лопатки (2 ед)</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>13.07.2023</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>

--- a/db.xlsx
+++ b/db.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,14 +45,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -393,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,237 +399,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>Юрьев Иван Николаевич</t>
+          <t>Юрьев Иван Ник</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
-          <t>8 902704 1329</t>
+          <t>5565658</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Массаж шеи (1 ед)</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
-          <t>01.08.2023</t>
+          <t>17.07.2023</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Юрьев Иван н.иколаевич</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>88855585</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Массаж верхней конечности, надплечья и области лопатки (2 ед)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>01.08.2023</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Юр ив ни</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>111222333</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Массаж шеи (1 ед)</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>01.08.2023</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>

--- a/db.xlsx
+++ b/db.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,6 +425,60 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>тесть тест тетс</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Массаж шеи (1 ед)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>йц йц вы</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Массаж шеи (1 ед)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db.xlsx
+++ b/db.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ва мсч цук</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>зуй</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.07.2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>фыв</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ывф</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.07.2023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
